--- a/HTML CSS markup.xlsx
+++ b/HTML CSS markup.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Marti\Programming\тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53D6E60-443D-4B44-B468-F03CA8B371DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC190DDE-E4CD-48D4-8697-261F3728E35C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="markup" sheetId="1" r:id="rId1"/>
+    <sheet name="description of changes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>запрос предложений: [html / css markup]</t>
   </si>
@@ -152,6 +153,96 @@
 Анимированная трансформация гамбургера в крестик и обратно.
 Анимированное открытие(закрытие) меню по нажатии на гамбургер(крестик). </t>
   </si>
+  <si>
+    <t>Скриншоты: \тест\screenshots</t>
+  </si>
+  <si>
+    <t>Что сделано</t>
+  </si>
+  <si>
+    <t>Вопросы на которые самостоятельно не смог найти ответы.</t>
+  </si>
+  <si>
+    <t>Как правильно в такой ситуации определять размеры.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Как правильно делать скриншоты для проверки верстки</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>. В моем случае: открывал в adobe reader, так как в illustrator не отображались картинки. Масштаб делал немного меньше полного, так как при полном экране не видно краев и не был полностью уверен в размерах. Опытным путем определил, что при разном захвате экрана, при масштабировании, размеры все же меняются. К тому же не знаю надо ли как-тo учитывать боковые размеры полей программ или браузеров. В общем мне нужно знать как правильно делать скриншоты для проверки верстки.</t>
+    </r>
+  </si>
+  <si>
+    <t>Подтверждение (пути к папкам)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Переделал верстку с помощью браузерного дополнения perfect pixel. Для этого сделал скриншоты экранов файла "GM Round Table Landing page v5". При пиксельной подгонке несколько раз менял верстку. Верстка получилась, на мой взгляд, несоколько тяжелее. Первоначальный вариант был более гибким. </t>
+  </si>
+  <si>
+    <t>Дата: 18.01.2021</t>
+  </si>
+  <si>
+    <t>При первоначальной верстке видел визуальное отличие макета pdf и макета в adobe illustrator. Принял решение применить размеры блоков, отступов и шрифтов от illusterator. Посчитал, что они главнее.</t>
+  </si>
+  <si>
+    <t>size_1, size_2 - скрин экрана по размерам из perfect pixel, size_1a, size_2a - скрин illustrator. Скриншоты: \тест\screenshots\screenshots-size</t>
+  </si>
+  <si>
+    <t>Переделал отображение фото спикеров с background css на img html. При подгонке использовал разные фото.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Как правильно подготавливать изображения</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>. При разном масштабировании лиц на фотографиях оказалось довольно сложно подгонять их к адекватному отображению. Что можно делать с фотографиями(кроме сжатия) - обрезать, масштабировать или еще что-нибудь?</t>
+    </r>
+  </si>
+  <si>
+    <t>Дополнительно</t>
+  </si>
+  <si>
+    <t>Улучшить мой gulpfile (добавить функционал js, может какие-то функции есть лучше тех, что у меня)</t>
+  </si>
+  <si>
+    <t>Важные</t>
+  </si>
+  <si>
+    <t>Вопрос по js. Для переключения отображения информации по спикеру и другому событию использовал табы(две одинаковые функции для разных блоков(классов)). Есть ли способ сделать это одной функцией? У меня что-то не получилось.</t>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +251,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,16 +274,52 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -252,11 +379,125 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -294,6 +535,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -303,15 +571,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -321,23 +580,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -636,53 +926,53 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -694,13 +984,13 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -720,13 +1010,13 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -748,13 +1038,13 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -938,4 +1228,296 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BBBC93C-BB04-4A72-A0D2-88C35EAF12ED}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="64" style="37" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="30" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
+      <c r="B2" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33">
+        <v>1</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+      <c r="A4" s="35">
+        <v>2</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="35">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/HTML CSS markup.xlsx
+++ b/HTML CSS markup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Marti\Programming\тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC190DDE-E4CD-48D4-8697-261F3728E35C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA80E238-7776-4D56-86FC-FDA1E07D6170}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,51 +535,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -628,6 +583,51 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -926,53 +926,53 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -984,13 +984,13 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1010,13 +1010,13 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -1038,13 +1038,13 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -1235,101 +1235,101 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="61.42578125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="64" style="37" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="28"/>
+    <col min="1" max="1" width="9.140625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="64" style="22" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="30" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="39" t="s">
+    <row r="2" spans="1:6" s="15" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="225" x14ac:dyDescent="0.25">
-      <c r="A4" s="35">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="27" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="35">
+      <c r="A5" s="20">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="42" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="43" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="28" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="38" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="38" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="23" t="s">
         <v>43</v>
       </c>
       <c r="E8"/>
